--- a/data/trans_orig/P14C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C76F65-5D17-4DD7-84BB-B2E9AA095AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4E4168-F73B-4AC1-A7B0-3D4D5DF86AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A0CA8F7-F2ED-4C72-BAE7-04DBDB9C807A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{152225A8-52C3-4902-B8A0-26FA7A15DA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
   <si>
     <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
   </si>
@@ -110,481 +110,490 @@
     <t>56,06%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>51,89%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -999,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B175B-BD9C-46F9-AC85-4C0A0F99E46B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EC1E3C-5422-4FC1-A1C9-A1334BDBF3C5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2210,7 +2219,7 @@
         <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -2219,13 +2228,13 @@
         <v>36308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -2234,13 +2243,13 @@
         <v>66364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2264,13 @@
         <v>13622</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2270,13 +2279,13 @@
         <v>13871</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -2285,13 +2294,13 @@
         <v>27493</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2368,13 @@
         <v>260482</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>283</v>
@@ -2374,13 +2383,13 @@
         <v>324207</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>544</v>
@@ -2389,13 +2398,13 @@
         <v>584688</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2419,13 @@
         <v>93854</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -2425,13 +2434,13 @@
         <v>94490</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>170</v>
@@ -2440,13 +2449,13 @@
         <v>188344</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2470,13 @@
         <v>30579</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -2476,13 +2485,13 @@
         <v>33301</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -2491,13 +2500,13 @@
         <v>63880</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2562,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4E4168-F73B-4AC1-A7B0-3D4D5DF86AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81E4F1F-1EAC-4A71-925B-A9B4B088C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{152225A8-52C3-4902-B8A0-26FA7A15DA6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E19ACC9E-5009-49DD-8FEC-2CAC4B6C460B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="185">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colesterol en 2016 (Tasa respuesta: 11,78%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -110,76 +110,76 @@
     <t>56,06%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>51,89%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>53,86%</t>
+    <t>54,46%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>49,89%</t>
+    <t>43,59%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -188,79 +188,79 @@
     <t>48,03%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>42,01%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>35,21%</t>
+    <t>34,85%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -269,64 +269,61 @@
     <t>56,32%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>60,0%</t>
   </si>
   <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>35,46%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>9,24%</t>
@@ -335,16 +332,16 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>18,37%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -353,82 +350,82 @@
     <t>66,38%</t>
   </si>
   <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>65,37%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -437,163 +434,160 @@
     <t>76,16%</t>
   </si>
   <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>66,68%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EC1E3C-5422-4FC1-A1C9-A1334BDBF3C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2434B1-D86D-48B3-AFED-8CF881B721C4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1852,13 +1846,13 @@
         <v>5244</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1867,13 +1861,13 @@
         <v>6281</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1882,13 +1876,13 @@
         <v>11525</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,7 +1938,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1956,13 +1950,13 @@
         <v>62263</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -1971,13 +1965,13 @@
         <v>71477</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -1986,13 +1980,13 @@
         <v>133740</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2001,13 @@
         <v>24810</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2022,13 +2016,13 @@
         <v>31942</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -2037,13 +2031,13 @@
         <v>56752</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2052,13 @@
         <v>6729</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2073,13 +2067,13 @@
         <v>7376</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2088,13 +2082,13 @@
         <v>14104</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,7 +2144,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2162,13 +2156,13 @@
         <v>139567</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>165</v>
@@ -2177,13 +2171,13 @@
         <v>196659</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>318</v>
@@ -2192,13 +2186,13 @@
         <v>336226</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2207,13 @@
         <v>30056</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -2228,13 +2222,13 @@
         <v>36308</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -2243,13 +2237,13 @@
         <v>66364</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2258,13 @@
         <v>13622</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2279,13 +2273,13 @@
         <v>13871</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -2294,13 +2288,13 @@
         <v>27493</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2362,13 @@
         <v>260482</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>283</v>
@@ -2383,13 +2377,13 @@
         <v>324207</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>544</v>
@@ -2398,13 +2392,13 @@
         <v>584688</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2413,13 @@
         <v>93854</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -2434,13 +2428,13 @@
         <v>94490</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>170</v>
@@ -2449,13 +2443,13 @@
         <v>188344</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2464,13 @@
         <v>30579</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -2485,13 +2479,13 @@
         <v>33301</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -2500,13 +2494,13 @@
         <v>63880</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2556,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
